--- a/data/unchecked/manual_collect/china/anhui/anhuiCaseStatistics_20200218.xlsx
+++ b/data/unchecked/manual_collect/china/anhui/anhuiCaseStatistics_20200218.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\lab\疫情可视化\每日数据更新\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\2.1核查\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E44536-2BE7-4704-82F6-13CBF14A9184}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -393,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9344" uniqueCount="3328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9347" uniqueCount="3331">
   <si>
     <t>统计级别</t>
   </si>
@@ -10336,10 +10335,6 @@
   </si>
   <si>
     <t>张彦玲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未核查</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -10577,11 +10572,27 @@
     <t>http://wjw.ah.gov.cn/news_details_55120.html</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>已核查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭泽添</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>核查通过</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
@@ -11031,55 +11042,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.921875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.07421875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.15234375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="12.07421875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="8.3828125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="9.4609375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="7.765625" style="13" customWidth="1"/>
-    <col min="11" max="11" width="12.4609375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.07421875" style="13" customWidth="1"/>
-    <col min="13" max="13" width="7.4609375" style="13" customWidth="1"/>
-    <col min="14" max="16" width="12.4609375" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="26.61328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="13" customWidth="1"/>
+    <col min="10" max="10" width="7.75" style="13" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="7.5" style="13" customWidth="1"/>
+    <col min="14" max="16" width="12.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="26.625" style="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.921875" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.875" style="15" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.61328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.07421875" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.125" style="13" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20" style="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.4609375" style="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.5" style="13" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="31.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="31.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.5" style="13" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.07421875" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="10.921875" style="13"/>
+    <col min="40" max="40" width="5.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="10.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="18" customFormat="1">
+    <row r="1" spans="1:40" s="18" customFormat="1" ht="15">
       <c r="A1" s="16" t="s">
         <v>3251</v>
       </c>
@@ -11206,7 +11216,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="C2" s="14">
         <v>43879</v>
@@ -11251,10 +11261,10 @@
         <v>43880.368750000001</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="V2" s="19" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="W2" s="15"/>
       <c r="Z2" s="15">
@@ -11267,9 +11277,20 @@
         <v>3305</v>
       </c>
       <c r="AC2" s="13" t="s">
-        <v>3306</v>
-      </c>
-      <c r="AD2" s="15"/>
+        <v>3327</v>
+      </c>
+      <c r="AD2" s="15">
+        <v>43880.460416666669</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>3328</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>3329</v>
+      </c>
+      <c r="AG2" s="13" t="s">
+        <v>3330</v>
+      </c>
       <c r="AI2" s="15"/>
       <c r="AJ2" s="15"/>
     </row>
@@ -11278,7 +11299,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="C3" s="14">
         <v>43879</v>
@@ -11308,10 +11329,10 @@
         <v>43880.368750000001</v>
       </c>
       <c r="U3" s="20" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="V3" s="19" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="Z3" s="15">
         <v>43880.40347222222</v>
@@ -11323,7 +11344,7 @@
         <v>3305</v>
       </c>
       <c r="AC3" s="13" t="s">
-        <v>3306</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -11331,7 +11352,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="C4" s="14">
         <v>43879</v>
@@ -11361,10 +11382,10 @@
         <v>43880.368750000001</v>
       </c>
       <c r="U4" s="20" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="V4" s="19" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="Z4" s="15">
         <v>43880.403472164355</v>
@@ -11376,7 +11397,7 @@
         <v>3305</v>
       </c>
       <c r="AC4" s="13" t="s">
-        <v>3306</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -11384,7 +11405,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="C5" s="14">
         <v>43879</v>
@@ -11414,10 +11435,10 @@
         <v>43880.368750000001</v>
       </c>
       <c r="U5" s="20" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="V5" s="19" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="Z5" s="15">
         <v>43880.403472164355</v>
@@ -11429,7 +11450,7 @@
         <v>3305</v>
       </c>
       <c r="AC5" s="13" t="s">
-        <v>3306</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -11437,7 +11458,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="C6" s="14">
         <v>43879</v>
@@ -11467,10 +11488,10 @@
         <v>43880.368750000001</v>
       </c>
       <c r="U6" s="20" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="V6" s="19" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="Z6" s="15">
         <v>43880.403472164355</v>
@@ -11482,7 +11503,7 @@
         <v>3305</v>
       </c>
       <c r="AC6" s="13" t="s">
-        <v>3306</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -11490,7 +11511,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="C7" s="14">
         <v>43879</v>
@@ -11523,10 +11544,10 @@
         <v>43880.368750000001</v>
       </c>
       <c r="U7" s="20" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="V7" s="19" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="Z7" s="15">
         <v>43880.403472164355</v>
@@ -11538,7 +11559,7 @@
         <v>3305</v>
       </c>
       <c r="AC7" s="13" t="s">
-        <v>3306</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -11546,7 +11567,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="C8" s="14">
         <v>43879</v>
@@ -11579,10 +11600,10 @@
         <v>43880.368750000001</v>
       </c>
       <c r="U8" s="20" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="V8" s="19" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="Z8" s="15">
         <v>43880.403472164355</v>
@@ -11594,7 +11615,7 @@
         <v>3305</v>
       </c>
       <c r="AC8" s="13" t="s">
-        <v>3306</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -11602,7 +11623,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="C9" s="14">
         <v>43879</v>
@@ -11629,10 +11650,10 @@
         <v>43880.368750000001</v>
       </c>
       <c r="U9" s="20" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="V9" s="19" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="Z9" s="15">
         <v>43880.403472164355</v>
@@ -11644,7 +11665,7 @@
         <v>3305</v>
       </c>
       <c r="AC9" s="13" t="s">
-        <v>3306</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -11652,7 +11673,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="C10" s="14">
         <v>43879</v>
@@ -11685,10 +11706,10 @@
         <v>43880.368750000001</v>
       </c>
       <c r="U10" s="20" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="Z10" s="15">
         <v>43880.403472164355</v>
@@ -11700,7 +11721,7 @@
         <v>3305</v>
       </c>
       <c r="AC10" s="13" t="s">
-        <v>3306</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -11708,7 +11729,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="C11" s="14">
         <v>43879</v>
@@ -11738,10 +11759,10 @@
         <v>43880.368750000001</v>
       </c>
       <c r="U11" s="20" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="Z11" s="15">
         <v>43880.403472164355</v>
@@ -11753,7 +11774,7 @@
         <v>3305</v>
       </c>
       <c r="AC11" s="13" t="s">
-        <v>3306</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -11761,7 +11782,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="C12" s="14">
         <v>43879</v>
@@ -11794,10 +11815,10 @@
         <v>43880.368750000001</v>
       </c>
       <c r="U12" s="20" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="Z12" s="15">
         <v>43880.403472164355</v>
@@ -11809,7 +11830,7 @@
         <v>3305</v>
       </c>
       <c r="AC12" s="13" t="s">
-        <v>3306</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="13" spans="1:40">
@@ -11817,7 +11838,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="C13" s="14">
         <v>43879</v>
@@ -11844,10 +11865,10 @@
         <v>43880.368750000001</v>
       </c>
       <c r="U13" s="20" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="V13" s="19" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="Z13" s="15">
         <v>43880.403472164355</v>
@@ -11859,7 +11880,7 @@
         <v>3305</v>
       </c>
       <c r="AC13" s="13" t="s">
-        <v>3306</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="14" spans="1:40">
@@ -11867,7 +11888,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="C14" s="14">
         <v>43879</v>
@@ -11897,10 +11918,10 @@
         <v>43880.368750000001</v>
       </c>
       <c r="U14" s="20" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="V14" s="19" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="Z14" s="15">
         <v>43880.403472164355</v>
@@ -11912,7 +11933,7 @@
         <v>3305</v>
       </c>
       <c r="AC14" s="13" t="s">
-        <v>3306</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="15" spans="1:40">
@@ -11920,7 +11941,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="C15" s="14">
         <v>43879</v>
@@ -11950,10 +11971,10 @@
         <v>43880.368750000001</v>
       </c>
       <c r="U15" s="20" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="V15" s="19" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="Z15" s="15">
         <v>43880.403472164355</v>
@@ -11965,7 +11986,7 @@
         <v>3305</v>
       </c>
       <c r="AC15" s="13" t="s">
-        <v>3306</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="16" spans="1:40">
@@ -11973,7 +11994,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="C16" s="14">
         <v>43879</v>
@@ -12003,10 +12024,10 @@
         <v>43880.368750000001</v>
       </c>
       <c r="U16" s="20" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="V16" s="19" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="Z16" s="15">
         <v>43880.403472164355</v>
@@ -12018,7 +12039,7 @@
         <v>3305</v>
       </c>
       <c r="AC16" s="13" t="s">
-        <v>3306</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -12026,7 +12047,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="C17" s="14">
         <v>43879</v>
@@ -12053,10 +12074,10 @@
         <v>43880.368750000001</v>
       </c>
       <c r="U17" s="20" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="Z17" s="15">
         <v>43880.403472164355</v>
@@ -12068,7 +12089,7 @@
         <v>3305</v>
       </c>
       <c r="AC17" s="13" t="s">
-        <v>3306</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -12076,7 +12097,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="C18" s="14">
         <v>43879</v>
@@ -12103,10 +12124,10 @@
         <v>43880.368750000001</v>
       </c>
       <c r="U18" s="20" t="s">
+        <v>3324</v>
+      </c>
+      <c r="V18" s="19" t="s">
         <v>3325</v>
-      </c>
-      <c r="V18" s="19" t="s">
-        <v>3326</v>
       </c>
       <c r="Z18" s="15">
         <v>43880.403472164355</v>
@@ -12118,59 +12139,59 @@
         <v>3305</v>
       </c>
       <c r="AC18" s="13" t="s">
-        <v>3306</v>
+        <v>3327</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AE2:AE1048576 AA2:AA1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AE2:AE1048576 AA2:AA1048576">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="V2" r:id="rId1" xr:uid="{3840D406-63CA-491E-9A82-4D38BC05B2D0}"/>
-    <hyperlink ref="V3" r:id="rId2" xr:uid="{19D3F88D-B7AA-4EF3-B9A6-39D251339B0C}"/>
-    <hyperlink ref="V4" r:id="rId3" xr:uid="{BA5BAA22-E24F-48BC-A7F3-AAEAAFCDA485}"/>
-    <hyperlink ref="V6" r:id="rId4" xr:uid="{897AF9A7-D34A-4C34-B08B-93F2D0BE57D4}"/>
-    <hyperlink ref="V8" r:id="rId5" xr:uid="{0430CD06-5A92-4F52-917F-5AA3449C5051}"/>
-    <hyperlink ref="V10" r:id="rId6" xr:uid="{D9A153B5-94D0-4547-9520-5A0F9061BB95}"/>
-    <hyperlink ref="V12" r:id="rId7" xr:uid="{51709725-0A85-4107-9754-18FEC52D163C}"/>
-    <hyperlink ref="V14" r:id="rId8" xr:uid="{BBE000B8-28F9-4670-A17C-C7C133A0A00E}"/>
-    <hyperlink ref="V16" r:id="rId9" xr:uid="{E9E1279C-F569-4DE7-A22E-7034F1124FA6}"/>
-    <hyperlink ref="V18" r:id="rId10" xr:uid="{8A2CEB80-855D-4478-B964-CFE2335F8F61}"/>
-    <hyperlink ref="V5" r:id="rId11" xr:uid="{6D8C5844-2B7D-4B04-A392-534A34F455DB}"/>
-    <hyperlink ref="V7" r:id="rId12" xr:uid="{91DC69CA-1896-4C2E-AF78-DAB5B6218BE9}"/>
-    <hyperlink ref="V9" r:id="rId13" xr:uid="{A2BD6A4F-622C-454F-8AC2-C4DD3DC70995}"/>
-    <hyperlink ref="V11" r:id="rId14" xr:uid="{58A1BC85-7FE1-4D46-B9F6-87BE4A5358BF}"/>
-    <hyperlink ref="V13" r:id="rId15" xr:uid="{36C90A0C-4B39-43E7-AFFA-EF5C5B56EEE9}"/>
-    <hyperlink ref="V15" r:id="rId16" xr:uid="{C34F4542-A096-4A7A-BF39-0719BFA767A1}"/>
-    <hyperlink ref="V17" r:id="rId17" xr:uid="{1DE90BCD-8FE8-491D-BBC6-38BB14EA303E}"/>
+    <hyperlink ref="V2" r:id="rId1"/>
+    <hyperlink ref="V3" r:id="rId2"/>
+    <hyperlink ref="V4" r:id="rId3"/>
+    <hyperlink ref="V6" r:id="rId4"/>
+    <hyperlink ref="V8" r:id="rId5"/>
+    <hyperlink ref="V10" r:id="rId6"/>
+    <hyperlink ref="V12" r:id="rId7"/>
+    <hyperlink ref="V14" r:id="rId8"/>
+    <hyperlink ref="V16" r:id="rId9"/>
+    <hyperlink ref="V18" r:id="rId10"/>
+    <hyperlink ref="V5" r:id="rId11"/>
+    <hyperlink ref="V7" r:id="rId12"/>
+    <hyperlink ref="V9" r:id="rId13"/>
+    <hyperlink ref="V11" r:id="rId14"/>
+    <hyperlink ref="V13" r:id="rId15"/>
+    <hyperlink ref="V15" r:id="rId16"/>
+    <hyperlink ref="V17" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
@@ -12183,7 +12204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN2907"/>
   <sheetViews>
     <sheetView zoomScale="160" workbookViewId="0">
@@ -12191,10 +12212,10 @@
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
